--- a/Problems 2.xlsx
+++ b/Problems 2.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computer\Desktop\DBSM_lessons\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C9C2E-87BC-4420-BC46-9BC3E2DAC48E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="600" windowWidth="23016" windowHeight="12360" xr2:uid="{9F710AB5-FC6E-4883-A3B6-7E25952EFCD1}"/>
+    <workbookView windowWidth="10848" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Var1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">Приведите пример супертипа сущности, не имеющего собственных экземпляров. </t>
   </si>
   <si>
+    <t>Геометрическая фигура</t>
+  </si>
+  <si>
+    <t>Заведение</t>
+  </si>
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
+    <t>Человек (только женщина или мужчина)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мобильный телефон может находится во взаимоисключающих связях с магазином, если он еще не продан, с пользователем, </t>
   </si>
   <si>
@@ -39,49 +40,75 @@
     <t>при проектировании БД , хранящей информацию об экземплярах сущности "мобильный телефон"?</t>
   </si>
   <si>
+    <t>Составьте диаграмму прецедентов для своего проекта. Дополните ею документацию.</t>
+  </si>
+  <si>
+    <t>Маша работает в отделе разработки в Департаменте ИТ, в котором также есть отдел тестирования и отдел поддержки. В компании, где работает Маша всего 4 департамента:</t>
+  </si>
+  <si>
     <t>ИТ, финансы, кадры и маркетинг. Постройте диаграмму объектов для компании, в которой работает Маша.</t>
   </si>
   <si>
     <t>Постройте диаграмы последовательностей и взаимодействия для кофемолки.</t>
   </si>
   <si>
+    <t>Диаграмма взаимодействия</t>
+  </si>
+  <si>
+    <t>Диаграмма последовательностей</t>
+  </si>
+  <si>
     <t>Постройте диаграмму состояния для сдачи на водительские права.</t>
   </si>
   <si>
+    <t>Постройте диаграму активности для покупок продуктов в супермаркете по списку. Предусмотрите хотя бы два действия в параллель на каком-нибудь этапе.</t>
+  </si>
+  <si>
     <t>Маша открыла бюро гадания Таро. У нее есть две штатные гадальщицы и 5 онлайн гаданий. Придумайте диаграмму классов для хранения информации о Машином бюро.</t>
   </si>
   <si>
-    <t>Постройте диаграму активности для покупок продуктов в супермаркете по списку. Предусмотрите хотя бы два действия в параллель на каком-нибудь этапе.</t>
-  </si>
-  <si>
-    <t>Маша работает в отделе разработки в Департаменте ИТ, в котором также есть отдел тестирования и отдел поддержки. В компании, где работает Маша всего 4 департамента:</t>
-  </si>
-  <si>
     <t>Пусть дана диаграмма классов для водителей автомобилей и транспортных средств.</t>
   </si>
   <si>
+    <t>Напишите на языке OCL условие того, что водителю не может быть меньше 18 лет. Также напишите условие того, что автомобиль не может быть старше 30 лет.</t>
+  </si>
+  <si>
+    <t>context Водитель inv:</t>
+  </si>
+  <si>
+    <t>context Автомобиль inv:</t>
+  </si>
+  <si>
+    <t>self.возраст &gt;= 18</t>
+  </si>
+  <si>
+    <t>self.возраст &lt;= 30</t>
+  </si>
+  <si>
     <t>Для предыдущей задачи перестройте диаграмму классов так, чтобы можно было написать условие того, что категория ТС должна соответствать категории прав.</t>
   </si>
   <si>
-    <t>Напишите на языке OCL условие того, что водителю не может быть меньше 18 лет. Также напишите условие того, что автомобиль не может быть старше 30 лет.</t>
-  </si>
-  <si>
     <t>Напишите это условие на OCL.</t>
   </si>
   <si>
-    <t>Составьте диаграмму прецедентов для своего проекта. Дополните ею документацию.</t>
+    <t>self.Транспортное средство.категория == self.Права.категория</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -89,20 +116,362 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -110,28 +479,624 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247015</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="телефон"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2165985" y="1307465"/>
+          <a:ext cx="3018790" cy="2342515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504190</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Маша и компания"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504190" y="5202555"/>
+          <a:ext cx="7045960" cy="4340860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>164465</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Взаимодействие кофемолки"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10005060" y="10039985"/>
+          <a:ext cx="6824345" cy="3717925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Кофемолка и последовательности"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563880" y="10462260"/>
+          <a:ext cx="9344025" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Сдача на права"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="350520" y="15064740"/>
+          <a:ext cx="9915525" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313690</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Активности-покупки"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="313690" y="19080480"/>
+          <a:ext cx="11154410" cy="2946400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Маша и гадания"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="22989540"/>
+          <a:ext cx="4391025" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>467995</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Водители и автомобили"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="33291780"/>
+          <a:ext cx="4780915" cy="3576320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -177,7 +1142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -210,26 +1175,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -262,23 +1210,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -420,138 +1351,189 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF8BC44-07CC-451C-A5EF-8A2104260014}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I178" workbookViewId="0">
+      <selection activeCell="K184" sqref="K184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="U54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" t="s">
+        <v>19</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="H171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>13</v>
+      <c r="B180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="11:11">
+      <c r="K183" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="11:11">
+      <c r="K184" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Problems 2.xlsx
+++ b/Problems 2.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9192"/>
+    <workbookView windowWidth="22368" windowHeight="9335" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Var1" sheetId="1" r:id="rId1"/>
@@ -14,21 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Приведите пример супертипа сущности, не имеющего собственных экземпляров. </t>
   </si>
   <si>
-    <t>Геометрическая фигура</t>
-  </si>
-  <si>
-    <t>Заведение</t>
-  </si>
-  <si>
-    <t>Параметр</t>
-  </si>
-  <si>
-    <t>Человек (только женщина или мужчина)</t>
+    <t>БД для хранения информации о спортивном инвентаре.</t>
+  </si>
+  <si>
+    <t>Инвентарь имеет типы: футбольные мячи, скакалки, брусья, ракетки и т.д.</t>
+  </si>
+  <si>
+    <t>Инветарь - супертип, не имеющий собственных экземпляров</t>
   </si>
   <si>
     <t xml:space="preserve">Мобильный телефон может находится во взаимоисключающих связях с магазином, если он еще не продан, с пользователем, </t>
@@ -99,54 +97,75 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="29">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -157,13 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -172,12 +184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -203,12 +219,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -219,20 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -249,6 +255,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -264,14 +279,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,7 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,31 +327,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,92 +495,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -424,59 +507,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,26 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF808080"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF808080"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF808080"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,21 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,210 +616,275 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="60">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Text" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Currency" xfId="6" builtinId="4"/>
+    <cellStyle name="Accent 3" xfId="7"/>
+    <cellStyle name="Percent" xfId="8" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Note" xfId="14" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="15" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="16" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="17" builtinId="35"/>
+    <cellStyle name="Title" xfId="18" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="19" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Accent 1" xfId="21"/>
+    <cellStyle name="Heading 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Accent 2" xfId="23"/>
+    <cellStyle name="Heading 4" xfId="24" builtinId="19"/>
+    <cellStyle name="Input" xfId="25" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="26" builtinId="40"/>
+    <cellStyle name="Good" xfId="27" builtinId="26"/>
+    <cellStyle name="Output" xfId="28" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="29" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="30" builtinId="22"/>
+    <cellStyle name="Result" xfId="31"/>
+    <cellStyle name="Linked Cell" xfId="32" builtinId="24"/>
+    <cellStyle name="Total" xfId="33" builtinId="25"/>
+    <cellStyle name="Bad" xfId="34" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="35" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="37" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="38" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="40" builtinId="34"/>
+    <cellStyle name="Status" xfId="41"/>
+    <cellStyle name="20% - Accent6" xfId="42" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="43" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="44" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="45" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="46" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="47" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="48" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="51" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="54" builtinId="52"/>
+    <cellStyle name="Heading" xfId="55"/>
+    <cellStyle name="Footnote" xfId="56"/>
+    <cellStyle name="Warning" xfId="57"/>
+    <cellStyle name="Error" xfId="58"/>
+    <cellStyle name="Accent" xfId="59"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00CC0000"/>
+      <rgbColor rgb="00006600"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00996600"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00DDDDDD"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCCCC"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -795,22 +898,20 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
+      <xdr:colOff>315360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247015</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>247680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="телефон"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2" descr="телефон"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
@@ -820,12 +921,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2165985" y="1307465"/>
-          <a:ext cx="3018790" cy="2342515"/>
+          <a:off x="2648585" y="3189605"/>
+          <a:ext cx="3822065" cy="2440940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -833,22 +937,20 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504190</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:colOff>504360</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>143510</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>33655</xdr:rowOff>
+      <xdr:colOff>143280</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Маша и компания"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Маша и компания"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
@@ -858,12 +960,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504190" y="5202555"/>
-          <a:ext cx="7045960" cy="4340860"/>
+          <a:off x="504190" y="15840075"/>
+          <a:ext cx="8973185" cy="4530725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -871,22 +976,20 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>164465</xdr:rowOff>
+      <xdr:colOff>129600</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>164465</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:colOff>164160</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3" descr="Взаимодействие кофемолки"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId3"/>
@@ -896,12 +999,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10005060" y="10039985"/>
-          <a:ext cx="6824345" cy="3717925"/>
+          <a:off x="12575540" y="21622385"/>
+          <a:ext cx="8590915" cy="3877310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -909,22 +1015,20 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>563760</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>32385</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>32040</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4" descr="Кофемолка и последовательности"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId4"/>
@@ -934,12 +1038,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="563880" y="10462260"/>
-          <a:ext cx="9344025" cy="3067050"/>
+          <a:off x="563245" y="22059900"/>
+          <a:ext cx="11914505" cy="3203575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -947,22 +1054,20 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>350640</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>390240</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5" descr="Сдача на права"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
@@ -972,12 +1077,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="350520" y="15064740"/>
-          <a:ext cx="9915525" cy="2933700"/>
+          <a:off x="350520" y="26860500"/>
+          <a:ext cx="12485370" cy="3062605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -985,22 +1093,20 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>313690</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>313560</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:colOff>357480</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6" descr="Активности-покупки"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
@@ -1010,12 +1116,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="313690" y="19080480"/>
-          <a:ext cx="11154410" cy="2946400"/>
+          <a:off x="313055" y="31050865"/>
+          <a:ext cx="14045565" cy="3075940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1023,22 +1132,20 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>8640</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>78105</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>78840</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7" descr="Маша и гадания"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId7"/>
@@ -1048,12 +1155,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="624840" y="22989540"/>
-          <a:ext cx="4391025" cy="5600700"/>
+          <a:off x="786130" y="35501580"/>
+          <a:ext cx="5515610" cy="5843905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1061,22 +1171,20 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>8640</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>467995</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>109220</xdr:rowOff>
+      <xdr:colOff>468720</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Picture 8" descr="Водители и автомобили"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId8"/>
@@ -1086,12 +1194,54 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="624840" y="33291780"/>
-          <a:ext cx="4780915" cy="3576320"/>
+          <a:off x="786130" y="46245780"/>
+          <a:ext cx="5905500" cy="3735705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434160</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Изображение 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6408420"/>
+          <a:ext cx="11323955" cy="6450330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1100,9 +1250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1116,7 +1266,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1128,7 +1278,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1140,14 +1290,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1180,9 +1330,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1212,7 +1362,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1357,182 +1507,180 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U184"/>
+  <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I178" workbookViewId="0">
-      <selection activeCell="K184" sqref="K184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1025" width="11.3425925925926" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="115" spans="1:21">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="U115" t="s">
         <v>11</v>
       </c>
-      <c r="U54" t="s">
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
-      <c r="F56" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>7</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>8</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>9</v>
+      </c>
+      <c r="B230" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167">
-        <v>9</v>
-      </c>
-      <c r="B167" t="s">
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" t="s">
+    <row r="233" spans="2:8">
+      <c r="B233" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="170" spans="2:8">
-      <c r="B170" t="s">
+      <c r="H233" t="s">
         <v>19</v>
       </c>
-      <c r="H170" t="s">
+    </row>
+    <row r="234" spans="2:8">
+      <c r="B234" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="2:8">
-      <c r="B171" t="s">
+      <c r="H234" t="s">
         <v>21</v>
       </c>
-      <c r="H171" t="s">
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180">
-        <v>10</v>
-      </c>
-      <c r="B180" t="s">
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
-      <c r="B181" t="s">
+    <row r="246" spans="11:11">
+      <c r="K246" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="11:11">
+      <c r="K247" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="11:11">
-      <c r="K183" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="184" spans="11:11">
-      <c r="K184" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Problems 2.xlsx
+++ b/Problems 2.xlsx
@@ -98,9 +98,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -114,6 +114,26 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,44 +141,26 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -168,6 +170,12 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -184,16 +192,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -226,25 +236,22 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCC0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -293,13 +300,6 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -315,6 +315,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -327,7 +339,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,8 +453,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -363,91 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,12 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,19 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,18 +509,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
         <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -524,21 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,15 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -592,6 +568,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,136 +619,136 @@
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1094,13 +1094,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>313560</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>144720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>357480</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1116,7 +1116,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="313055" y="31050865"/>
+          <a:off x="313055" y="31233745"/>
           <a:ext cx="14045565" cy="3075940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1133,13 +1133,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8640</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>23040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>78840</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1155,7 +1155,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="786130" y="35501580"/>
+          <a:off x="786130" y="35684460"/>
           <a:ext cx="5515610" cy="5843905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1172,13 +1172,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8640</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>468720</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1194,7 +1194,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="786130" y="46245780"/>
+          <a:off x="786130" y="46428660"/>
           <a:ext cx="5905500" cy="3735705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1209,21 +1209,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>434160</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Изображение 1"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="что-то с человечками"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId9"/>
@@ -1233,15 +1235,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6408420"/>
-          <a:ext cx="11323955" cy="6450330"/>
+          <a:off x="877570" y="6774180"/>
+          <a:ext cx="10066020" cy="5473065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1507,10 +1506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U247"/>
+  <dimension ref="A1:U248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1610,71 +1609,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164">
+    <row r="165" spans="1:2">
+      <c r="A165">
         <v>7</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188">
+    <row r="189" spans="1:2">
+      <c r="A189">
         <v>8</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
+    <row r="231" spans="1:2">
+      <c r="A231">
         <v>9</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" t="s">
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8">
-      <c r="B233" t="s">
-        <v>18</v>
-      </c>
-      <c r="H233" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="234" spans="2:8">
       <c r="B234" t="s">
+        <v>18</v>
+      </c>
+      <c r="H234" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8">
+      <c r="B235" t="s">
         <v>20</v>
       </c>
-      <c r="H234" t="s">
+      <c r="H235" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
+    <row r="244" spans="1:2">
+      <c r="A244">
         <v>10</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
-      <c r="B244" t="s">
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="246" spans="11:11">
-      <c r="K246" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="247" spans="11:11">
       <c r="K247" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="11:11">
+      <c r="K248" t="s">
         <v>24</v>
       </c>
     </row>
